--- a/Data/EC/NIT-9004978621.xlsx
+++ b/Data/EC/NIT-9004978621.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{050C729C-8158-4558-8038-59539251E231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEB65463-E8F6-458E-B9F4-49F7BB1C1DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A047E9B8-BB0C-4108-8162-8A69DF49005E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7A048ED8-798A-455C-8745-FD3452A1BCD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,31 +65,37 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73583245</t>
+  </si>
+  <si>
+    <t>FERNANDO ISSAIAS MORALES ESPINOSA</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
     <t>45456772</t>
   </si>
   <si>
     <t>MARIA BERNARDA NOVA MARRUGO</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -503,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03625885-B543-394A-819D-AB4B26875D92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B79E008-A587-BE64-FAE4-59757467BB6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -854,8 +860,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3D721A-C1E6-4971-85DB-603940CC8819}">
-  <dimension ref="B2:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE31949F-5838-458D-A571-1DC4D636E466}">
+  <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -866,7 +872,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -879,7 +885,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -924,7 +930,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -956,12 +962,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2144000</v>
+        <v>4288000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -972,14 +978,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5">
         <v>7</v>
@@ -1009,13 +1015,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1032,10 +1038,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>320000</v>
+        <v>224000</v>
       </c>
       <c r="G16" s="18">
-        <v>8000000</v>
+        <v>4000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1058,7 +1064,7 @@
         <v>320000</v>
       </c>
       <c r="G17" s="18">
-        <v>8000000</v>
+        <v>4000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1081,7 +1087,7 @@
         <v>320000</v>
       </c>
       <c r="G18" s="18">
-        <v>8000000</v>
+        <v>4000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1104,7 +1110,7 @@
         <v>320000</v>
       </c>
       <c r="G19" s="18">
-        <v>8000000</v>
+        <v>4000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1127,7 +1133,7 @@
         <v>320000</v>
       </c>
       <c r="G20" s="18">
-        <v>8000000</v>
+        <v>4000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1150,63 +1156,224 @@
         <v>320000</v>
       </c>
       <c r="G21" s="18">
-        <v>8000000</v>
+        <v>4000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="18">
+        <v>320000</v>
+      </c>
+      <c r="G22" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="18">
         <v>224000</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G23" s="18">
         <v>8000000</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="18">
+        <v>320000</v>
+      </c>
+      <c r="G24" s="18">
+        <v>8000000</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="18">
+        <v>320000</v>
+      </c>
+      <c r="G25" s="18">
+        <v>8000000</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="18">
+        <v>320000</v>
+      </c>
+      <c r="G26" s="18">
+        <v>8000000</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="H27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="18">
+        <v>320000</v>
+      </c>
+      <c r="G27" s="18">
+        <v>8000000</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="H28" s="1" t="s">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="18">
+        <v>320000</v>
+      </c>
+      <c r="G28" s="18">
+        <v>8000000</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="24">
+        <v>320000</v>
+      </c>
+      <c r="G29" s="24">
+        <v>8000000</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="C35" s="32"/>
+      <c r="H35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H34:J34"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9004978621.xlsx
+++ b/Data/EC/NIT-9004978621.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEB65463-E8F6-458E-B9F4-49F7BB1C1DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D6AAB42-5BEF-4827-955A-C8AB6F6B8246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7A048ED8-798A-455C-8745-FD3452A1BCD3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9568185C-BFFB-409C-9AE3-BB21C509445D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,37 +65,31 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73583245</t>
-  </si>
-  <si>
-    <t>FERNANDO ISSAIAS MORALES ESPINOSA</t>
+    <t>45456772</t>
+  </si>
+  <si>
+    <t>MARIA BERNARDA NOVA MARRUGO</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
   </si>
   <si>
     <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>45456772</t>
-  </si>
-  <si>
-    <t>MARIA BERNARDA NOVA MARRUGO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -194,22 +188,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -409,23 +403,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,10 +447,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,7 +503,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B79E008-A587-BE64-FAE4-59757467BB6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C84340-9A2D-C5A2-A33D-C5A915E2A0AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,8 +854,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE31949F-5838-458D-A571-1DC4D636E466}">
-  <dimension ref="B2:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E8E62A-17D6-4802-A335-22CF975C2814}">
+  <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -872,7 +866,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -885,7 +879,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -930,7 +924,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -962,12 +956,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4288000</v>
+        <v>2144000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -978,14 +972,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" s="5">
         <v>7</v>
@@ -1015,13 +1009,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1038,10 +1032,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>224000</v>
+        <v>320000</v>
       </c>
       <c r="G16" s="18">
-        <v>4000000</v>
+        <v>8000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1064,7 +1058,7 @@
         <v>320000</v>
       </c>
       <c r="G17" s="18">
-        <v>4000000</v>
+        <v>8000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1087,7 +1081,7 @@
         <v>320000</v>
       </c>
       <c r="G18" s="18">
-        <v>4000000</v>
+        <v>8000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1110,7 +1104,7 @@
         <v>320000</v>
       </c>
       <c r="G19" s="18">
-        <v>4000000</v>
+        <v>8000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1133,7 +1127,7 @@
         <v>320000</v>
       </c>
       <c r="G20" s="18">
-        <v>4000000</v>
+        <v>8000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1156,224 +1150,63 @@
         <v>320000</v>
       </c>
       <c r="G21" s="18">
-        <v>4000000</v>
+        <v>8000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
-        <v>320000</v>
-      </c>
-      <c r="G22" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="18">
+      <c r="F22" s="24">
         <v>224000</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G22" s="24">
         <v>8000000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="18">
-        <v>320000</v>
-      </c>
-      <c r="G24" s="18">
-        <v>8000000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="18">
-        <v>320000</v>
-      </c>
-      <c r="G25" s="18">
-        <v>8000000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="18">
-        <v>320000</v>
-      </c>
-      <c r="G26" s="18">
-        <v>8000000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="18">
-        <v>320000</v>
-      </c>
-      <c r="G27" s="18">
-        <v>8000000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="B27" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="H27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="18">
-        <v>320000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>8000000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="24">
-        <v>320000</v>
-      </c>
-      <c r="G29" s="24">
-        <v>8000000</v>
-      </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
+      <c r="B28" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="H28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="H35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9004978621.xlsx
+++ b/Data/EC/NIT-9004978621.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D6AAB42-5BEF-4827-955A-C8AB6F6B8246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B7E15D3-DDAD-4C1F-8B18-C7B79688A67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9568185C-BFFB-409C-9AE3-BB21C509445D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4A1950E9-7087-4697-945E-1DFC3AD3F965}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -188,22 +188,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -397,29 +397,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,19 +438,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -503,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C84340-9A2D-C5A2-A33D-C5A915E2A0AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24AD9BCD-15D9-94A0-47AE-FCEF7DD6CB96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -854,7 +860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E8E62A-17D6-4802-A335-22CF975C2814}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61900D0-F4C3-4C83-BF08-222BBF32D05C}">
   <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -877,49 +883,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -927,7 +933,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -943,7 +949,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9004978621</v>
       </c>
@@ -959,7 +965,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>2144000</v>
       </c>
@@ -1028,18 +1034,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>320000</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>8000000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1051,18 +1057,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>320000</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>8000000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1074,18 +1080,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>320000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>8000000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1097,18 +1103,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>320000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>8000000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1120,18 +1126,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>320000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>8000000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1143,47 +1149,47 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>320000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>8000000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="26">
         <v>224000</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="26">
         <v>8000000</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="32"/>
+      <c r="C27" s="34"/>
       <c r="H27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1191,10 +1197,10 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="32"/>
+      <c r="C28" s="34"/>
       <c r="H28" s="1" t="s">
         <v>28</v>
       </c>
